--- a/Output.xlsx
+++ b/Output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,84 +424,63 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Chandmeri, Varanasi</t>
+          <t>Lahartara, Varanasi</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dafi, Varanasi</t>
+          <t>Chandmeri, Varanasi</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sarnath, Varanasi</t>
+          <t>Shivpur, Varanasi</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Suswahi, Varanasi</t>
+          <t>Chitaipur, Varanasi</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lahurabir, Varanasi</t>
+          <t>Chandmari, Varanasi</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ramnagar, Varanasi</t>
+          <t>Airhe, Varanasi</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sundarpur, Varanasi</t>
+          <t>Suswahi, Varanasi</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ashokpuram Colony, Varanasi</t>
+          <t>Dasepur, Varanasi</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kabir Nagar, Varanasi</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
           <t>Lanka, Varanasi</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Parao, Varanasi</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Ganesh Dham Colony, Varanasi</t>
         </is>
       </c>
     </row>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,48 +442,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Chitaipur, Varanasi</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Chandmari, Varanasi</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Airhe, Varanasi</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Suswahi, Varanasi</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Dasepur, Varanasi</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lanka, Varanasi</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
